--- a/src/main/resources/template/excel/export/ArrivalRateSupplierReport.xlsx
+++ b/src/main/resources/template/excel/export/ArrivalRateSupplierReport.xlsx
@@ -2,22 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysc\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22755" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>lijy02</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -28,12 +32,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>YSCGD:
-jx:area(lastCell="I2")</t>
+          <t>作者:
+jx:area(lastCell="I3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +46,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="I2")</t>
+jx:each(items="reportList" var="obj" lastCell="I3")</t>
         </r>
       </text>
     </comment>
@@ -51,91 +55,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>采购收获率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>到货率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未到货数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未到货金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.arrivalRate}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.purchaseNum}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.purchaseAmount}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.receiptNum}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.receiptAmount}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.notQuantity}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.notAmount}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>${obj.supplierCode}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.supplierName}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>供应商名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.supplierName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>到货率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.arrivalRate}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.purchaseNum}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.purchaseAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.receiptNum}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.receiptAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.notQuantity}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.notAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未到货金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未到货数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -145,28 +160,33 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,13 +194,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -199,7 +249,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -241,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,7 +326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,82 +535,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="9" width="24.625" customWidth="1"/>
+    <col min="1" max="3" width="21.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/ArrivalRateSupplierReport.xlsx
+++ b/src/main/resources/template/excel/export/ArrivalRateSupplierReport.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysc\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22320" windowHeight="4890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -57,10 +53,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>采购收获率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>到货率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -73,14 +65,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>收货数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>未到货数量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -130,6 +114,18 @@
   </si>
   <si>
     <t>供应商名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购到货率分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>到货数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>到货金额</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -556,7 +552,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -569,60 +565,60 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/ArrivalRateSupplierReport.xlsx
+++ b/src/main/resources/template/excel/export/ArrivalRateSupplierReport.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysc\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22320" windowHeight="4890"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -26,6 +30,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -39,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
@@ -133,6 +139,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,16 +155,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -211,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,6 +238,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -602,22 +617,22 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/ArrivalRateSupplierReport.xlsx
+++ b/src/main/resources/template/excel/export/ArrivalRateSupplierReport.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysc\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22320" windowHeight="4890"/>
+    <workbookView windowWidth="27570" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <oleSize ref="A1:I3"/>
 </workbook>
 </file>
 
@@ -24,31 +20,27 @@
     <author>lijy02</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
-jx:area(lastCell="I3")</t>
+          <t>jx:area(lastCell="I3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="I3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="I3")</t>
         </r>
       </text>
     </comment>
@@ -57,92 +49,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+  <si>
+    <t>采购到货率-按供应商查询</t>
+  </si>
+  <si>
+    <t>供应商编号</t>
+  </si>
+  <si>
+    <t>供应商名称</t>
+  </si>
   <si>
     <t>到货率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>采购数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>采购金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>到货数量</t>
+  </si>
+  <si>
+    <t>到货金额</t>
   </si>
   <si>
     <t>未到货数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>未到货金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.supplierCode}</t>
+  </si>
+  <si>
+    <t>${obj.supplierName}</t>
   </si>
   <si>
     <t>${obj.arrivalRate}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${obj.purchaseNum}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${obj.purchaseAmount}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${obj.receiptNum}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${obj.receiptAmount}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${obj.notQuantity}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${obj.notAmount}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.supplierCode}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.supplierName}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购到货率分析</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>到货数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>到货金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,32 +133,174 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,12 +309,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -217,9 +523,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -230,32 +778,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -545,104 +1132,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="3" width="21.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="12.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/ArrivalRateSupplierReport.xlsx
+++ b/src/main/resources/template/excel/export/ArrivalRateSupplierReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="I4")</t>
+          <t>jx:area(lastCell="I3")</t>
         </r>
       </text>
     </comment>
@@ -42,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="I3")</t>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>采购到货率-按供应商查询</t>
   </si>
@@ -110,155 +112,6 @@
   </si>
   <si>
     <t>${obj.notAmount}</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[SUM(D3)]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$[SUM(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3)]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$[SUM(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3)]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$[SUM(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3)]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$[SUM(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3)]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$[SUM(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3)]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -282,6 +135,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -289,6 +143,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -296,22 +151,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -359,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,83 +237,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -474,7 +262,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -753,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -839,31 +627,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
